--- a/Planilhas_Metas.xlsx
+++ b/Planilhas_Metas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3E7B4E-1293-4740-B936-D11C3D89B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DE3EF-3D24-40F5-AFF4-844042A90D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Meta</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Irá me ajudar a evoluir</t>
+  </si>
+  <si>
+    <t>Financeira</t>
+  </si>
+  <si>
+    <t>Poupar 200 reais p/mês</t>
+  </si>
+  <si>
+    <t>Quero viajar no final do ano</t>
   </si>
 </sst>
 </file>
@@ -102,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -176,21 +185,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -201,10 +195,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -219,88 +213,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -467,6 +386,41 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -477,24 +431,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -513,32 +484,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -850,197 +879,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D22F7A3-C2CF-46BF-A49B-98FCFD9603D7}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="24" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="9" t="str">
+      <c r="G3" s="29"/>
+      <c r="H3" s="13" t="str">
         <f>CHOOSE(MATCH(E3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Ok</v>
+        <v>Tu é Pika</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="9"/>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="13" t="str">
+        <f>CHOOSE(MATCH(E4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="30" t="s">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="13" t="str">
+        <f>CHOOSE(MATCH(E5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="9"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="13" t="str">
+        <f>CHOOSE(MATCH(E6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="9"/>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="13" t="str">
+        <f>CHOOSE(MATCH(E7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="9"/>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="13" t="str">
+        <f>CHOOSE(MATCH(E8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="9"/>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="13" t="str">
+        <f>CHOOSE(MATCH(E9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="9"/>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="13" t="str">
+        <f>CHOOSE(MATCH(E10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="9"/>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="13" t="str">
+        <f>CHOOSE(MATCH(E11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="13" t="str">
+        <f>CHOOSE(MATCH(E12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1048,144 +1104,159 @@
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="9" t="str">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="14" t="str">
         <f>IF(E18="Não Feito", "Burro", IF(E18="Fazendo", "Ok", IF(E18="Completo", "Tu é Pika", "Estado Inválido")))</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="9"/>
+      <c r="E25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="9"/>
+      <c r="E26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C12"/>
     <mergeCell ref="B17:C27"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H12">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12 E18:E27" xr:uid="{CCDFE83B-75B4-4804-BAFF-0108560FCA8F}">
       <formula1>"Fazendo,Completo,Não Feito"</formula1>

--- a/Planilhas_Metas.xlsx
+++ b/Planilhas_Metas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DE3EF-3D24-40F5-AFF4-844042A90D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9690A765-715E-4C3F-9913-05672F057875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>Meta</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>Quero viajar no final do ano</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Carreira</t>
+  </si>
+  <si>
+    <t>completo</t>
+  </si>
+  <si>
+    <t>fazendo</t>
+  </si>
+  <si>
+    <t>Terminar o curso de dados</t>
   </si>
 </sst>
 </file>
@@ -97,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +125,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -427,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -466,24 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,18 +517,99 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -524,6 +620,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -549,6 +655,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -559,11 +675,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -877,237 +1003,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D22F7A3-C2CF-46BF-A49B-98FCFD9603D7}">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:16" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+      <c r="J2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="50">
+        <v>44941</v>
+      </c>
       <c r="H3" s="13" t="str">
         <f>CHOOSE(MATCH(E3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Tu é Pika</v>
+        <v>Ok</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="13" t="str">
+        <f>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="13" t="str">
         <f>CHOOSE(MATCH(E4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="13" t="str">
+        <f>CHOOSE(MATCH(M4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="30"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="13" t="str">
         <f>CHOOSE(MATCH(E5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Ok</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="13" t="str">
+        <f>CHOOSE(MATCH(M5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="13" t="str">
         <f>CHOOSE(MATCH(E6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="13" t="str">
+        <f>CHOOSE(MATCH(M6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="13" t="str">
         <f>CHOOSE(MATCH(E7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="13" t="str">
+        <f>CHOOSE(MATCH(M7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="13" t="str">
         <f>CHOOSE(MATCH(E8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="13" t="str">
+        <f>CHOOSE(MATCH(M8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="13" t="str">
         <f>CHOOSE(MATCH(E9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="13" t="str">
+        <f>CHOOSE(MATCH(M9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="13" t="str">
         <f>CHOOSE(MATCH(E10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="13" t="str">
+        <f>CHOOSE(MATCH(M10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="13" t="str">
         <f>CHOOSE(MATCH(E11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="13" t="str">
+        <f>CHOOSE(MATCH(M11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="13" t="str">
         <f>CHOOSE(MATCH(E12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="13" t="str">
+        <f>CHOOSE(MATCH(M12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIF(E3:E12,"Completo")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF(E3:E12,"Fazendo")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="7" t="s">
         <v>0</v>
       </c>
@@ -1123,11 +1387,30 @@
       <c r="H17" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="24" t="s">
+      <c r="J17" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="45"/>
+      <c r="L17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -1138,13 +1421,29 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="14" t="str">
-        <f>IF(E18="Não Feito", "Burro", IF(E18="Fazendo", "Ok", IF(E18="Completo", "Tu é Pika", "Estado Inválido")))</f>
-        <v>Tu é Pika</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+        <f>IF(E18="Não Feito", "Burro", IF(E18="Fazendo", "Ok", IF(E18="Completo", "Tu é Pika")))</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="13" t="str">
+        <f>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16" t="s">
         <v>6</v>
@@ -1152,10 +1451,22 @@
       <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="13" t="str">
+        <f>CHOOSE(MATCH(M19,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="8"/>
       <c r="E20" s="16" t="s">
         <v>7</v>
@@ -1163,10 +1474,22 @@
       <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="13" t="str">
+        <f>CHOOSE(MATCH(M20,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="8"/>
       <c r="E21" s="16" t="s">
         <v>5</v>
@@ -1174,10 +1497,22 @@
       <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="13" t="str">
+        <f>CHOOSE(MATCH(M21,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="8"/>
       <c r="E22" s="16" t="s">
         <v>5</v>
@@ -1185,10 +1520,22 @@
       <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="13" t="str">
+        <f>CHOOSE(MATCH(M22,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16" t="s">
         <v>5</v>
@@ -1196,10 +1543,22 @@
       <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="13" t="str">
+        <f>CHOOSE(MATCH(M23,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="8"/>
       <c r="E24" s="16" t="s">
         <v>5</v>
@@ -1207,10 +1566,22 @@
       <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="13" t="str">
+        <f>CHOOSE(MATCH(M24,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="8"/>
       <c r="E25" s="16" t="s">
         <v>5</v>
@@ -1218,10 +1589,22 @@
       <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="13" t="str">
+        <f>CHOOSE(MATCH(M25,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="8"/>
       <c r="E26" s="16" t="s">
         <v>5</v>
@@ -1229,10 +1612,22 @@
       <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="13" t="str">
+        <f>CHOOSE(MATCH(M26,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="9"/>
       <c r="E27" s="17" t="s">
         <v>5</v>
@@ -1240,32 +1635,62 @@
       <c r="F27" s="12"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="13" t="str">
+        <f>CHOOSE(MATCH(M27,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C12"/>
     <mergeCell ref="B17:C27"/>
+    <mergeCell ref="J2:K12"/>
+    <mergeCell ref="J17:K27"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Burro">
-      <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P12">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Tu é Pika">
-      <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12 E18:E27" xr:uid="{CCDFE83B-75B4-4804-BAFF-0108560FCA8F}">
+  <conditionalFormatting sqref="P18:P27">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",P18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",P18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",P18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12 E18:E27 M3:M12 M18:M27" xr:uid="{CCDFE83B-75B4-4804-BAFF-0108560FCA8F}">
       <formula1>"Fazendo,Completo,Não Feito"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{6B998184-05C7-4D1C-B484-C0EC621779CF}">
-      <formula1>"or;rr"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{3D416993-4122-4F09-B72F-04529C0B6A48}">
-      <formula1>"oi;ok"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:G15" xr:uid="{8C67F576-FFFD-4941-9A05-0D4BEB0C3A3E}">
       <formula1>"oi;22"</formula1>

--- a/Planilhas_Metas.xlsx
+++ b/Planilhas_Metas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9690A765-715E-4C3F-9913-05672F057875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A6A97-B7CB-43DE-B269-A384EF7ECE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>Meta</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t>Aprender Algoritimos IA</t>
-  </si>
-  <si>
     <t>Irá me ajudar a evoluir</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Saúde</t>
   </si>
   <si>
-    <t>Carreira</t>
-  </si>
-  <si>
     <t>completo</t>
   </si>
   <si>
@@ -90,6 +84,33 @@
   </si>
   <si>
     <t>Terminar o curso de dados</t>
+  </si>
+  <si>
+    <t>Comer proteinas e carbo</t>
+  </si>
+  <si>
+    <t>Ir ao dentista</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Consertar a lampada da sala</t>
+  </si>
+  <si>
+    <t>Melhorar a sala</t>
+  </si>
+  <si>
+    <t>Tornar a casa inteligente</t>
+  </si>
+  <si>
+    <t>Comprar interruptores inteligentes</t>
+  </si>
+  <si>
+    <t>Colocar uma prateleira p/mãe</t>
+  </si>
+  <si>
+    <t>melhorar o quarto</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -456,11 +477,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -514,9 +597,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -589,20 +678,216 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -704,6 +989,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}" name="Tabela1" displayName="Tabela1" ref="L2:P12" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="12">
+  <autoFilter ref="L2:P12" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A357CE9A-AD42-4066-950D-9F046D1DE654}" name="Meta" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B8AE6149-793B-40A1-BE92-88197D6E55D1}" name="Progresso" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{09348D36-0C8D-42B4-AD81-7F860EB3E994}" name="Observação" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EC72D661-28FE-4B61-9462-35B357CF8EA7}" name="Prazo" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{EF098A3D-F5EB-45CE-A7F6-81BBD397A439}" name="Status" dataDxfId="7">
+      <calculatedColumnFormula>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}" name="Tabela2" displayName="Tabela2" ref="L17:P27" totalsRowShown="0" tableBorderDxfId="5">
+  <autoFilter ref="L17:P27" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9BE76760-57D1-4307-9194-D9336995FB1E}" name="Meta" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BA81C0E7-4DA5-4C39-9CBB-0C6860D732A7}" name="Progresso" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F789F8F4-0B10-4A93-BF91-124142485D55}" name="Observação" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E0295F28-1C49-4E5E-A09D-0AAF302FB8C0}" name="Prazo" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{10891836-39D1-40A9-A138-E4D1CA28A2D5}" name="Status" dataDxfId="0">
+      <calculatedColumnFormula>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D22F7A3-C2CF-46BF-A49B-98FCFD9603D7}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,9 +1336,9 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
@@ -1049,22 +1366,22 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="39"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1072,15 +1389,15 @@
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="50">
+        <v>9</v>
+      </c>
+      <c r="G3" s="23">
         <v>44941</v>
       </c>
       <c r="H3" s="13" t="str">
@@ -1090,17 +1407,17 @@
       <c r="I3" s="1"/>
       <c r="J3" s="40"/>
       <c r="K3" s="41"/>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="O3" s="23"/>
-      <c r="P3" s="13" t="str">
+      <c r="P3" s="7" t="str">
         <f>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1113,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="13" t="str">
         <f>CHOOSE(MATCH(E4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1121,13 +1438,15 @@
       <c r="I4" s="1"/>
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="54" t="s">
+        <v>18</v>
+      </c>
       <c r="M4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="24"/>
-      <c r="P4" s="13" t="str">
+      <c r="P4" s="7" t="str">
         <f>CHOOSE(MATCH(M4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1140,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="13" t="str">
         <f>CHOOSE(MATCH(E5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Ok</v>
@@ -1148,13 +1467,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="40"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="24"/>
-      <c r="P5" s="13" t="str">
+      <c r="P5" s="7" t="str">
         <f>CHOOSE(MATCH(M5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Ok</v>
       </c>
@@ -1167,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="13" t="str">
         <f>CHOOSE(MATCH(E6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1175,13 +1494,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="40"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="7" t="str">
         <f>CHOOSE(MATCH(M6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1194,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="13" t="str">
         <f>CHOOSE(MATCH(E7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1202,13 +1521,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="40"/>
       <c r="K7" s="41"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="18"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="7" t="str">
         <f>CHOOSE(MATCH(M7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1221,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="13" t="str">
         <f>CHOOSE(MATCH(E8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1229,13 +1548,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="13" t="str">
+      <c r="P8" s="7" t="str">
         <f>CHOOSE(MATCH(M8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1248,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="13" t="str">
         <f>CHOOSE(MATCH(E9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1256,13 +1575,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="40"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="13" t="str">
+      <c r="P9" s="7" t="str">
         <f>CHOOSE(MATCH(M9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1275,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="51"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="13" t="str">
         <f>CHOOSE(MATCH(E10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1283,13 +1602,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="40"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="7" t="str">
         <f>CHOOSE(MATCH(M10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1302,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="13" t="str">
         <f>CHOOSE(MATCH(E11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1310,13 +1629,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="40"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="13" t="str">
+      <c r="P11" s="7" t="str">
         <f>CHOOSE(MATCH(M11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1329,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="52"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="13" t="str">
         <f>CHOOSE(MATCH(E12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
@@ -1337,20 +1656,20 @@
       <c r="I12" s="1"/>
       <c r="J12" s="42"/>
       <c r="K12" s="43"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="13" t="str">
+      <c r="P12" s="7" t="str">
         <f>CHOOSE(MATCH(M12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <f>COUNTIF(E3:E12,"Completo")</f>
@@ -1359,7 +1678,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <f>COUNTIF(E3:E12,"Fazendo")</f>
@@ -1369,7 +1688,7 @@
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="7" t="s">
@@ -1388,22 +1707,22 @@
         <v>3</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K17" s="45"/>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1411,13 +1730,13 @@
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="14" t="str">
@@ -1426,19 +1745,19 @@
       </c>
       <c r="J18" s="46"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="8" t="s">
-        <v>9</v>
+      <c r="L18" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O18" s="23"/>
-      <c r="P18" s="13" t="str">
+      <c r="P18" s="7" t="str">
         <f>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Tu é Pika</v>
+        <v>Burro</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1453,15 +1772,21 @@
       <c r="H19" s="14"/>
       <c r="J19" s="46"/>
       <c r="K19" s="47"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="54" t="s">
+        <v>23</v>
+      </c>
       <c r="M19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="13" t="str">
+        <v>6</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="24">
+        <v>45311</v>
+      </c>
+      <c r="P19" s="7" t="str">
         <f>CHOOSE(MATCH(M19,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Tu é Pika</v>
+        <v>Burro</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,15 +1801,21 @@
       <c r="H20" s="14"/>
       <c r="J20" s="46"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="54" t="s">
+        <v>24</v>
+      </c>
       <c r="M20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="13" t="str">
+        <v>6</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="24">
+        <v>45304</v>
+      </c>
+      <c r="P20" s="7" t="str">
         <f>CHOOSE(MATCH(M20,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Ok</v>
+        <v>Burro</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1499,13 +1830,13 @@
       <c r="H21" s="14"/>
       <c r="J21" s="46"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="13" t="str">
+      <c r="P21" s="7" t="str">
         <f>CHOOSE(MATCH(M21,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1522,13 +1853,13 @@
       <c r="H22" s="14"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="8"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="13" t="str">
+      <c r="P22" s="7" t="str">
         <f>CHOOSE(MATCH(M22,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1545,13 +1876,13 @@
       <c r="H23" s="14"/>
       <c r="J23" s="46"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="18"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="13" t="str">
+      <c r="P23" s="7" t="str">
         <f>CHOOSE(MATCH(M23,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1568,13 +1899,13 @@
       <c r="H24" s="14"/>
       <c r="J24" s="46"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="13" t="str">
+      <c r="P24" s="7" t="str">
         <f>CHOOSE(MATCH(M24,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1591,13 +1922,13 @@
       <c r="H25" s="14"/>
       <c r="J25" s="46"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="8"/>
+      <c r="N25" s="18"/>
       <c r="O25" s="24"/>
-      <c r="P25" s="13" t="str">
+      <c r="P25" s="7" t="str">
         <f>CHOOSE(MATCH(M25,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1614,13 +1945,13 @@
       <c r="H26" s="14"/>
       <c r="J26" s="46"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="18"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="13" t="str">
+      <c r="P26" s="7" t="str">
         <f>CHOOSE(MATCH(M26,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1637,13 +1968,13 @@
       <c r="H27" s="15"/>
       <c r="J27" s="48"/>
       <c r="K27" s="49"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="9"/>
+      <c r="N27" s="19"/>
       <c r="O27" s="25"/>
-      <c r="P27" s="13" t="str">
+      <c r="P27" s="7" t="str">
         <f>CHOOSE(MATCH(M27,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1656,35 +1987,35 @@
     <mergeCell ref="J17:K27"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P12">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P27">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1698,5 +2029,9 @@
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Planilhas_Metas.xlsx
+++ b/Planilhas_Metas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A6A97-B7CB-43DE-B269-A384EF7ECE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6EDE6-6C72-4BF2-9B38-861B15131C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Meta</t>
   </si>
@@ -111,6 +113,12 @@
   </si>
   <si>
     <t>melhorar o quarto</t>
+  </si>
+  <si>
+    <t>Reduzir a conta de internet</t>
+  </si>
+  <si>
+    <t>Reduzir os custos</t>
   </si>
 </sst>
 </file>
@@ -160,12 +168,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -249,52 +257,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -307,26 +270,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -340,19 +290,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -363,7 +300,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -372,72 +309,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -539,11 +435,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -553,162 +554,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="29">
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
@@ -719,13 +721,11 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -742,7 +742,9 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -754,11 +756,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -771,18 +770,17 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -790,102 +788,15 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -977,6 +888,193 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -992,14 +1090,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}" name="Tabela1" displayName="Tabela1" ref="L2:P12" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}" name="Tabela1" displayName="Tabela1" ref="L2:P12" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="L2:P12" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A357CE9A-AD42-4066-950D-9F046D1DE654}" name="Meta" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B8AE6149-793B-40A1-BE92-88197D6E55D1}" name="Progresso" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{09348D36-0C8D-42B4-AD81-7F860EB3E994}" name="Observação" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{EC72D661-28FE-4B61-9462-35B357CF8EA7}" name="Prazo" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{EF098A3D-F5EB-45CE-A7F6-81BBD397A439}" name="Status" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A357CE9A-AD42-4066-950D-9F046D1DE654}" name="Meta" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B8AE6149-793B-40A1-BE92-88197D6E55D1}" name="Progresso" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{09348D36-0C8D-42B4-AD81-7F860EB3E994}" name="Observação" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{EC72D661-28FE-4B61-9462-35B357CF8EA7}" name="Prazo" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{EF098A3D-F5EB-45CE-A7F6-81BBD397A439}" name="Status" dataDxfId="22">
       <calculatedColumnFormula>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1008,18 +1106,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}" name="Tabela2" displayName="Tabela2" ref="L17:P27" totalsRowShown="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}" name="Tabela2" displayName="Tabela2" ref="L17:P27" totalsRowShown="0" tableBorderDxfId="21">
   <autoFilter ref="L17:P27" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9BE76760-57D1-4307-9194-D9336995FB1E}" name="Meta" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BA81C0E7-4DA5-4C39-9CBB-0C6860D732A7}" name="Progresso" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F789F8F4-0B10-4A93-BF91-124142485D55}" name="Observação" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E0295F28-1C49-4E5E-A09D-0AAF302FB8C0}" name="Prazo" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{10891836-39D1-40A9-A138-E4D1CA28A2D5}" name="Status" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{9BE76760-57D1-4307-9194-D9336995FB1E}" name="Meta" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{BA81C0E7-4DA5-4C39-9CBB-0C6860D732A7}" name="Progresso" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F789F8F4-0B10-4A93-BF91-124142485D55}" name="Observação" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E0295F28-1C49-4E5E-A09D-0AAF302FB8C0}" name="Prazo" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{10891836-39D1-40A9-A138-E4D1CA28A2D5}" name="Status" dataDxfId="16">
       <calculatedColumnFormula>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD0A6FD6-A655-48AC-B5B2-206867A18123}" name="Tabela6" displayName="Tabela6" ref="D17:G27" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="D17:G27" xr:uid="{CD0A6FD6-A655-48AC-B5B2-206867A18123}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A73B7E0D-9423-4D6C-B912-916DB3D84954}" name="Meta" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{38854C7E-677C-4848-AABA-031E507AC936}" name="Progresso" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A4BCD98C-E2FF-4F57-ABB1-694512FC29FD}" name="Observação" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EDCE1AE8-90E0-4DC6-84DA-A5CAB83FECAB}" name="Prazo" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1322,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D22F7A3-C2CF-46BF-A49B-98FCFD9603D7}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1442,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -1345,324 +1456,324 @@
   <sheetData>
     <row r="1" spans="2:16" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="50" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="23">
-        <v>44941</v>
-      </c>
-      <c r="H3" s="13" t="str">
+      <c r="G3" s="15">
+        <v>44943</v>
+      </c>
+      <c r="H3" s="8" t="str">
         <f>CHOOSE(MATCH(E3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Ok</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="7" t="str">
+      <c r="O3" s="15"/>
+      <c r="P3" s="4" t="str">
         <f>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="13" t="str">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="8" t="str">
         <f>CHOOSE(MATCH(E4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="54" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="7" t="str">
+      <c r="M4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="4" t="str">
         <f>CHOOSE(MATCH(M4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="13" t="str">
+      <c r="F5" s="5"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="8" t="str">
         <f>CHOOSE(MATCH(E5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Ok</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="18" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="7" t="str">
+      <c r="N5" s="10"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="4" t="str">
         <f>CHOOSE(MATCH(M5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Ok</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="13" t="str">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="8" t="str">
         <f>CHOOSE(MATCH(E6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="7" t="str">
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="4" t="str">
         <f>CHOOSE(MATCH(M6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="13" t="str">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="8" t="str">
         <f>CHOOSE(MATCH(E7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="7" t="str">
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="4" t="str">
         <f>CHOOSE(MATCH(M7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="13" t="str">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="8" t="str">
         <f>CHOOSE(MATCH(E8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="7" t="str">
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="4" t="str">
         <f>CHOOSE(MATCH(M8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="13" t="str">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="8" t="str">
         <f>CHOOSE(MATCH(E9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="7" t="str">
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="4" t="str">
         <f>CHOOSE(MATCH(M9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="13" t="str">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="8" t="str">
         <f>CHOOSE(MATCH(E10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="7" t="str">
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="4" t="str">
         <f>CHOOSE(MATCH(M10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="13" t="str">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="8" t="str">
         <f>CHOOSE(MATCH(E11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="7" t="str">
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="4" t="str">
         <f>CHOOSE(MATCH(M11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="13" t="str">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="8" t="str">
         <f>CHOOSE(MATCH(E12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="7" t="str">
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="4" t="str">
         <f>CHOOSE(MATCH(M12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1687,294 +1798,300 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="50" t="s">
+      <c r="K17" s="43"/>
+      <c r="L17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="53" t="s">
+      <c r="O17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="18" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="50" t="str">
         <f>IF(E18="Não Feito", "Burro", IF(E18="Fazendo", "Ok", IF(E18="Completo", "Tu é Pika")))</f>
         <v>Tu é Pika</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="54" t="s">
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="7" t="str">
+      <c r="O18" s="15"/>
+      <c r="P18" s="4" t="str">
         <f>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Burro</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="54" t="s">
+      <c r="H19" s="50"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="16">
         <v>45311</v>
       </c>
-      <c r="P19" s="7" t="str">
+      <c r="P19" s="4" t="str">
         <f>CHOOSE(MATCH(M19,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Burro</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="14"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="54" t="s">
+      <c r="H20" s="50"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="16">
         <v>45304</v>
       </c>
-      <c r="P20" s="7" t="str">
+      <c r="P20" s="4" t="str">
         <f>CHOOSE(MATCH(M20,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Burro</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="7" t="str">
+      <c r="H21" s="50"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="16">
+        <v>45308</v>
+      </c>
+      <c r="P21" s="4" t="str">
         <f>CHOOSE(MATCH(M21,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Tu é Pika</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="14"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="7" t="str">
+      <c r="H22" s="50"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="4" t="str">
         <f>CHOOSE(MATCH(M22,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="11"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="14"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="7" t="str">
+      <c r="H23" s="50"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="4" t="str">
         <f>CHOOSE(MATCH(M23,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="11"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="14"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="7" t="str">
+      <c r="H24" s="50"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="4" t="str">
         <f>CHOOSE(MATCH(M24,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="11"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="14"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="7" t="str">
+      <c r="H25" s="50"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="4" t="str">
         <f>CHOOSE(MATCH(M25,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="11"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="14"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="7" t="str">
+      <c r="H26" s="50"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="4" t="str">
         <f>CHOOSE(MATCH(M26,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="15"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="7" t="str">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="51"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="4" t="str">
         <f>CHOOSE(MATCH(M27,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
         <v>Tu é Pika</v>
       </c>
@@ -1987,35 +2104,35 @@
     <mergeCell ref="J17:K27"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P12">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P27">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2029,9 +2146,10 @@
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Planilhas_Metas.xlsx
+++ b/Planilhas_Metas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6EDE6-6C72-4BF2-9B38-861B15131C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13E9DA-6F26-483A-8DD9-3D72218D1AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{23C04C42-1C65-4DBB-920C-11ED9BB55231}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
+    <sheet name="Março" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
   <si>
     <t>Meta</t>
   </si>
@@ -64,15 +65,9 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t>Irá me ajudar a evoluir</t>
-  </si>
-  <si>
     <t>Financeira</t>
   </si>
   <si>
-    <t>Poupar 200 reais p/mês</t>
-  </si>
-  <si>
     <t>Quero viajar no final do ano</t>
   </si>
   <si>
@@ -119,6 +114,42 @@
   </si>
   <si>
     <t>Reduzir os custos</t>
+  </si>
+  <si>
+    <t>Foi um excelente curso</t>
+  </si>
+  <si>
+    <t>A meta é ganhar massa</t>
+  </si>
+  <si>
+    <t>Poupar 70 reais p/mês</t>
+  </si>
+  <si>
+    <t>Fazer mais processos seletivos</t>
+  </si>
+  <si>
+    <t>Até agora consegui passar em 2</t>
+  </si>
+  <si>
+    <t>Evoluir mais no site derivada</t>
+  </si>
+  <si>
+    <t>Adicionar o passo a passo</t>
+  </si>
+  <si>
+    <t>Criar mais portfolios dos projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É muito bom para mostrar </t>
+  </si>
+  <si>
+    <t>Pegar sol pelo menos 3x semana</t>
+  </si>
+  <si>
+    <t>Faz bem a saúde</t>
+  </si>
+  <si>
+    <t>Tomar creatina</t>
   </si>
 </sst>
 </file>
@@ -544,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -605,78 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,11 +658,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="58">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -772,32 +804,219 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -890,6 +1109,101 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -1075,6 +1389,96 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1090,14 +1494,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}" name="Tabela1" displayName="Tabela1" ref="L2:P12" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}" name="Tabela1" displayName="Tabela1" ref="L2:P12" totalsRowShown="0" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="L2:P12" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A357CE9A-AD42-4066-950D-9F046D1DE654}" name="Meta" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B8AE6149-793B-40A1-BE92-88197D6E55D1}" name="Progresso" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{09348D36-0C8D-42B4-AD81-7F860EB3E994}" name="Observação" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{EC72D661-28FE-4B61-9462-35B357CF8EA7}" name="Prazo" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{EF098A3D-F5EB-45CE-A7F6-81BBD397A439}" name="Status" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{A357CE9A-AD42-4066-950D-9F046D1DE654}" name="Meta" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{B8AE6149-793B-40A1-BE92-88197D6E55D1}" name="Progresso" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{09348D36-0C8D-42B4-AD81-7F860EB3E994}" name="Observação" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{EC72D661-28FE-4B61-9462-35B357CF8EA7}" name="Prazo" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{EF098A3D-F5EB-45CE-A7F6-81BBD397A439}" name="Status" dataDxfId="42">
       <calculatedColumnFormula>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1106,14 +1510,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}" name="Tabela2" displayName="Tabela2" ref="L17:P27" totalsRowShown="0" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}" name="Tabela2" displayName="Tabela2" ref="L17:P27" totalsRowShown="0" tableBorderDxfId="41">
   <autoFilter ref="L17:P27" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9BE76760-57D1-4307-9194-D9336995FB1E}" name="Meta" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{BA81C0E7-4DA5-4C39-9CBB-0C6860D732A7}" name="Progresso" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F789F8F4-0B10-4A93-BF91-124142485D55}" name="Observação" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{E0295F28-1C49-4E5E-A09D-0AAF302FB8C0}" name="Prazo" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{10891836-39D1-40A9-A138-E4D1CA28A2D5}" name="Status" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{9BE76760-57D1-4307-9194-D9336995FB1E}" name="Meta" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BA81C0E7-4DA5-4C39-9CBB-0C6860D732A7}" name="Progresso" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{F789F8F4-0B10-4A93-BF91-124142485D55}" name="Observação" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E0295F28-1C49-4E5E-A09D-0AAF302FB8C0}" name="Prazo" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{10891836-39D1-40A9-A138-E4D1CA28A2D5}" name="Status" dataDxfId="36">
       <calculatedColumnFormula>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1122,13 +1526,58 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD0A6FD6-A655-48AC-B5B2-206867A18123}" name="Tabela6" displayName="Tabela6" ref="D17:G27" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD0A6FD6-A655-48AC-B5B2-206867A18123}" name="Tabela6" displayName="Tabela6" ref="D17:G27" totalsRowShown="0" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="D17:G27" xr:uid="{CD0A6FD6-A655-48AC-B5B2-206867A18123}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A73B7E0D-9423-4D6C-B912-916DB3D84954}" name="Meta" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{38854C7E-677C-4848-AABA-031E507AC936}" name="Progresso" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A4BCD98C-E2FF-4F57-ABB1-694512FC29FD}" name="Observação" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{EDCE1AE8-90E0-4DC6-84DA-A5CAB83FECAB}" name="Prazo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A73B7E0D-9423-4D6C-B912-916DB3D84954}" name="Meta" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{38854C7E-677C-4848-AABA-031E507AC936}" name="Progresso" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A4BCD98C-E2FF-4F57-ABB1-694512FC29FD}" name="Observação" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{EDCE1AE8-90E0-4DC6-84DA-A5CAB83FECAB}" name="Prazo" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D86677DE-47B0-41D7-B414-0934C8DFB244}" name="Tabela14" displayName="Tabela14" ref="L2:P12" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="L2:P12" xr:uid="{CB86D063-0FB2-4EA5-96A6-B2822A4F527C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DAF88521-F17E-4520-A839-152AB8145568}" name="Meta" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{43FB48A6-BD17-43CB-9F08-98BC6F1736F2}" name="Progresso" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{71969184-09E4-426C-A84B-A737A2B25722}" name="Observação" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FBDA1DFF-DA6C-43CA-A677-9262B7F6720F}" name="Prazo" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{8B346D20-C05C-4DCF-AB0D-742BA367A847}" name="Status" dataDxfId="13">
+      <calculatedColumnFormula>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01E4B8F4-6BAC-45E1-822B-73C8F60E9FBE}" name="Tabela25" displayName="Tabela25" ref="L17:P27" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="L17:P27" xr:uid="{F2083493-6C53-4CBC-8D0D-DC5010409185}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0B539DD4-06C0-431A-882B-67CF8A54509A}" name="Meta" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C831A0EF-7CDC-4E18-9792-C8651F9AC80A}" name="Progresso" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{61837D86-B453-4BBC-B0B2-E86C0EE8B832}" name="Observação" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8290171E-E8EE-4DAE-9EBD-4C25161219AE}" name="Prazo" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FAB65A24-9260-46BC-B2A1-D55800B930E1}" name="Status" dataDxfId="7">
+      <calculatedColumnFormula>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EC9391CE-E295-46FA-BCB0-06B06C6A133B}" name="Tabela66" displayName="Tabela66" ref="D17:G27" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="D17:G27" xr:uid="{CD0A6FD6-A655-48AC-B5B2-206867A18123}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{51DD0F9A-C625-47C8-9345-45C03BE42415}" name="Meta" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C9A9E634-3C2B-4A44-97C0-7A6BE4188727}" name="Progresso" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0F6C2B37-805D-4C9A-925C-7B1D291AC125}" name="Observação" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AC04CFC2-DC63-4BCF-8914-4545C2976DF8}" name="Prazo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1433,17 +1882,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D22F7A3-C2CF-46BF-A49B-98FCFD9603D7}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="3.140625" customWidth="1"/>
@@ -1456,10 +1905,10 @@
   <sheetData>
     <row r="1" spans="2:16" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1476,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="37"/>
+      <c r="J2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="48"/>
       <c r="L2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1497,60 +1946,68 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G3" s="15">
-        <v>44943</v>
+        <v>45318</v>
       </c>
       <c r="H3" s="8" t="str">
         <f>CHOOSE(MATCH(E3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Ok</v>
+        <v>Tu é Pika</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="O3" s="15">
+        <v>45318</v>
+      </c>
       <c r="P3" s="4" t="str">
         <f>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Tu é Pika</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="16">
+        <v>45322</v>
+      </c>
       <c r="H4" s="8" t="str">
         <f>CHOOSE(MATCH(E4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
-        <v>Tu é Pika</v>
+        <v>Ok</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>5</v>
@@ -1563,8 +2020,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
         <v>7</v>
@@ -1576,8 +2033,8 @@
         <v>Ok</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="22"/>
       <c r="M5" s="10" t="s">
         <v>7</v>
@@ -1590,8 +2047,8 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5"/>
       <c r="E6" s="10" t="s">
         <v>5</v>
@@ -1603,8 +2060,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="22"/>
       <c r="M6" s="10" t="s">
         <v>5</v>
@@ -1617,8 +2074,8 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
         <v>5</v>
@@ -1630,8 +2087,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="22"/>
       <c r="M7" s="10" t="s">
         <v>5</v>
@@ -1644,8 +2101,8 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="5"/>
       <c r="E8" s="10" t="s">
         <v>5</v>
@@ -1657,8 +2114,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="22"/>
       <c r="M8" s="10" t="s">
         <v>5</v>
@@ -1671,8 +2128,8 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="5"/>
       <c r="E9" s="10" t="s">
         <v>5</v>
@@ -1684,8 +2141,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="22"/>
       <c r="M9" s="10" t="s">
         <v>5</v>
@@ -1698,8 +2155,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10" t="s">
         <v>5</v>
@@ -1711,8 +2168,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="22"/>
       <c r="M10" s="10" t="s">
         <v>5</v>
@@ -1725,8 +2182,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10" t="s">
         <v>5</v>
@@ -1738,8 +2195,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="22"/>
       <c r="M11" s="10" t="s">
         <v>5</v>
@@ -1752,8 +2209,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="6"/>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -1765,8 +2222,8 @@
         <v>Tu é Pika</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="23"/>
       <c r="M12" s="11" t="s">
         <v>5</v>
@@ -1780,7 +2237,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <f>COUNTIF(E3:E12,"Completo")</f>
@@ -1789,7 +2246,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <f>COUNTIF(E3:E12,"Fazendo")</f>
@@ -1798,29 +2255,29 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="31"/>
+      <c r="B17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="42"/>
       <c r="D17" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="43"/>
+      <c r="J17" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="54"/>
       <c r="L17" s="18" t="s">
         <v>0</v>
       </c>
@@ -1838,32 +2295,34 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="50" t="str">
+        <v>10</v>
+      </c>
+      <c r="G18" s="34">
+        <v>45322</v>
+      </c>
+      <c r="H18" s="26" t="str">
         <f>IF(E18="Não Feito", "Burro", IF(E18="Fazendo", "Ok", IF(E18="Completo", "Tu é Pika")))</f>
         <v>Tu é Pika</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="4" t="str">
@@ -1872,25 +2331,25 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="50"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O19" s="16">
         <v>45311</v>
@@ -1901,25 +2360,25 @@
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="50"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
+      <c r="H20" s="26"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O20" s="16">
         <v>45304</v>
@@ -1930,25 +2389,25 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="48"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="50"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="H21" s="26"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O21" s="16">
         <v>45308</v>
@@ -1959,17 +2418,17 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="50"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
+      <c r="H22" s="26"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="22"/>
       <c r="M22" s="10" t="s">
         <v>5</v>
@@ -1982,17 +2441,17 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="48"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="50"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="26"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="22"/>
       <c r="M23" s="10" t="s">
         <v>5</v>
@@ -2005,17 +2464,17 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="50"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="26"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="22"/>
       <c r="M24" s="10" t="s">
         <v>5</v>
@@ -2028,17 +2487,17 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="50"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="H25" s="26"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="22"/>
       <c r="M25" s="10" t="s">
         <v>5</v>
@@ -2051,17 +2510,17 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="48"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="50"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="H26" s="26"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="22"/>
       <c r="M26" s="10" t="s">
         <v>5</v>
@@ -2074,17 +2533,17 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="51"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="27"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="23"/>
       <c r="M27" s="11" t="s">
         <v>5</v>
@@ -2104,35 +2563,35 @@
     <mergeCell ref="J17:K27"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P12">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Tu é Pika">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Tu é Pika">
       <formula>NOT(ISERROR(SEARCH("Tu é Pika",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Burro">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="Burro">
       <formula>NOT(ISERROR(SEARCH("Burro",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2152,4 +2611,743 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738937D-4FAD-4E75-A535-BADFE523F8D8}">
+  <dimension ref="B1:P27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45366</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f>CHOOSE(MATCH(E3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="15">
+        <v>45318</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>CHOOSE(MATCH(M3,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16">
+        <v>45322</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>CHOOSE(MATCH(E4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="4" t="str">
+        <f>CHOOSE(MATCH(M4,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="8" t="str">
+        <f>CHOOSE(MATCH(E5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="4" t="str">
+        <f>CHOOSE(MATCH(M5,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="8" t="str">
+        <f>CHOOSE(MATCH(E6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="4" t="str">
+        <f>CHOOSE(MATCH(M6,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="8" t="str">
+        <f>CHOOSE(MATCH(E7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="4" t="str">
+        <f>CHOOSE(MATCH(M7,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="8" t="str">
+        <f>CHOOSE(MATCH(E8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="4" t="str">
+        <f>CHOOSE(MATCH(M8,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="8" t="str">
+        <f>CHOOSE(MATCH(E9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="4" t="str">
+        <f>CHOOSE(MATCH(M9,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="8" t="str">
+        <f>CHOOSE(MATCH(E10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="4" t="str">
+        <f>CHOOSE(MATCH(M10,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="8" t="str">
+        <f>CHOOSE(MATCH(E11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="4" t="str">
+        <f>CHOOSE(MATCH(M11,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="8" t="str">
+        <f>CHOOSE(MATCH(E12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="4" t="str">
+        <f>CHOOSE(MATCH(M12,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIF(E3:E12,"Completo")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF(E3:E12,"Fazendo")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="54"/>
+      <c r="L17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="34">
+        <v>45322</v>
+      </c>
+      <c r="H18" s="26" t="str">
+        <f>IF(E18="Não Feito", "Burro", IF(E18="Fazendo", "Ok", IF(E18="Completo", "Tu é Pika")))</f>
+        <v>Tu é Pika</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="4" t="str">
+        <f>CHOOSE(MATCH(M18,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Burro</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="16">
+        <v>45311</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f>CHOOSE(MATCH(M19,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Burro</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="26"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="16">
+        <v>45304</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f>CHOOSE(MATCH(M20,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Burro</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="26"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="16">
+        <v>45308</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>CHOOSE(MATCH(M21,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="26"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="4" t="str">
+        <f>CHOOSE(MATCH(M22,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="26"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="4" t="str">
+        <f>CHOOSE(MATCH(M23,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="26"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="4" t="str">
+        <f>CHOOSE(MATCH(M24,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="26"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="4" t="str">
+        <f>CHOOSE(MATCH(M25,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="26"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="4" t="str">
+        <f>CHOOSE(MATCH(M26,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="27"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="4" t="str">
+        <f>CHOOSE(MATCH(M27,{"Não Feito";"Fazendo";"Completo"},0), "Burro", "Ok", "Tu é Pika")</f>
+        <v>Tu é Pika</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C12"/>
+    <mergeCell ref="J2:K12"/>
+    <mergeCell ref="B17:C27"/>
+    <mergeCell ref="J17:K27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H12">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P12">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",P3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P27">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Tu é Pika">
+      <formula>NOT(ISERROR(SEARCH("Tu é Pika",P18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Burro">
+      <formula>NOT(ISERROR(SEARCH("Burro",P18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",P18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:G15" xr:uid="{D9F142D9-B98A-4568-8D2D-650747019C78}">
+      <formula1>"oi;22"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12 E18:E27 M3:M12 M18:M27" xr:uid="{8AE0FED3-BA86-45FF-9EAB-722F670C3228}">
+      <formula1>"Fazendo,Completo,Não Feito"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>